--- a/Document/v1/DevSecOps-VerificationStandard-v1-ja.xlsx
+++ b/Document/v1/DevSecOps-VerificationStandard-v1-ja.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\owasp-devsecops-verification-standard\owasp-devsecops-verification-standard-ja\Document\v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\docs\owasp-devsecops-verification-standard\owasp-devsecops-verification-standard-ja\Document\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938549BB-E275-4D05-8630-4CA4BE583A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03874623-9F09-4A32-9AD3-DCA950E63FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
@@ -2077,19 +2077,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>管轄環境の堅牢化テンプレートを実装している。</t>
-    <rPh sb="0" eb="4">
-      <t>ｶﾝｶﾂｶﾝｷｮｳ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ｹﾝﾛｳｶ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ｼﾞｯｿｳ</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>開発環境の堅牢化標準に沿ったセキュリティポリシーを適用している。</t>
     <rPh sb="0" eb="4">
       <t>ｶｲﾊﾂｶﾝｷｮｳ</t>
@@ -3592,6 +3579,22 @@
       <t>ﾂｳｼﾝ</t>
     </rPh>
     <rPh sb="16" eb="18">
+      <t>ｼﾞｯｿｳ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>開発環境の堅牢化テンプレートを実装している。</t>
+    <rPh sb="0" eb="2">
+      <t>ｶｲﾊﾂ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ｶﾝｷｮｳ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ｹﾝﾛｳｶ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>ｼﾞｯｿｳ</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -4152,9 +4155,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="95">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4226,16 +4229,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4244,16 +4241,10 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4262,16 +4253,10 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4280,17 +4265,14 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4354,23 +4336,17 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4378,11 +4354,56 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4396,49 +4417,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7278,70 +7260,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="40" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="41" t="s">
         <v>43</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="42" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="41" t="s">
         <v>45</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="42" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="40" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="39" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7349,7 +7331,7 @@
       <c r="A9" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="39" t="s">
         <v>301</v>
       </c>
     </row>
@@ -7357,7 +7339,7 @@
       <c r="A10" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="40" t="s">
         <v>302</v>
       </c>
     </row>
@@ -7365,7 +7347,7 @@
       <c r="A11" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="40" t="s">
         <v>303</v>
       </c>
     </row>
@@ -7373,15 +7355,15 @@
       <c r="A12" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>414</v>
+      <c r="B12" s="40" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="39" t="s">
         <v>265</v>
       </c>
     </row>
@@ -7389,7 +7371,7 @@
       <c r="A14" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="39" t="s">
         <v>304</v>
       </c>
     </row>
@@ -7397,7 +7379,7 @@
       <c r="A15" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="40" t="s">
         <v>305</v>
       </c>
     </row>
@@ -7405,7 +7387,7 @@
       <c r="A16" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="40" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7413,7 +7395,7 @@
       <c r="A17" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="40" t="s">
         <v>327</v>
       </c>
     </row>
@@ -7421,15 +7403,15 @@
       <c r="A18" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="39" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="39" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7437,15 +7419,15 @@
       <c r="A20" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="47" t="s">
-        <v>428</v>
+      <c r="B20" s="40" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="40" t="s">
         <v>308</v>
       </c>
     </row>
@@ -7453,7 +7435,7 @@
       <c r="A22" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="40" t="s">
         <v>309</v>
       </c>
     </row>
@@ -7461,7 +7443,7 @@
       <c r="A23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="39" t="s">
         <v>267</v>
       </c>
     </row>
@@ -7469,7 +7451,7 @@
       <c r="A24" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="39" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7477,7 +7459,7 @@
       <c r="A25" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="40" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7485,23 +7467,23 @@
       <c r="A26" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="47" t="s">
-        <v>429</v>
+      <c r="B26" s="40" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="47" t="s">
-        <v>430</v>
+      <c r="B27" s="40" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="39" t="s">
         <v>268</v>
       </c>
     </row>
@@ -7509,7 +7491,7 @@
       <c r="A29" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="39" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7517,7 +7499,7 @@
       <c r="A30" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="40" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7525,7 +7507,7 @@
       <c r="A31" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="40" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7533,7 +7515,7 @@
       <c r="A32" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="40" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7541,7 +7523,7 @@
       <c r="A33" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="39" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7549,7 +7531,7 @@
       <c r="A34" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="39" t="s">
         <v>317</v>
       </c>
     </row>
@@ -7557,7 +7539,7 @@
       <c r="A35" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="39" t="s">
         <v>318</v>
       </c>
     </row>
@@ -7565,7 +7547,7 @@
       <c r="A36" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="39" t="s">
         <v>319</v>
       </c>
     </row>
@@ -7573,7 +7555,7 @@
       <c r="A37" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="40" t="s">
         <v>320</v>
       </c>
     </row>
@@ -7581,7 +7563,7 @@
       <c r="A38" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="39" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7589,7 +7571,7 @@
       <c r="A39" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="39" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7597,7 +7579,7 @@
       <c r="A40" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="39" t="s">
         <v>322</v>
       </c>
     </row>
@@ -7605,7 +7587,7 @@
       <c r="A41" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="40" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7613,15 +7595,15 @@
       <c r="A42" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="47" t="s">
-        <v>415</v>
+      <c r="B42" s="40" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="39" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7629,7 +7611,7 @@
       <c r="A44" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="39" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7637,7 +7619,7 @@
       <c r="A45" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="40" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7645,7 +7627,7 @@
       <c r="A46" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="40" t="s">
         <v>326</v>
       </c>
     </row>
@@ -7653,7 +7635,7 @@
       <c r="A47" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="40" t="s">
         <v>328</v>
       </c>
     </row>
@@ -7661,7 +7643,7 @@
       <c r="A48" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="39" t="s">
         <v>271</v>
       </c>
     </row>
@@ -7669,7 +7651,7 @@
       <c r="A49" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="39" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7677,7 +7659,7 @@
       <c r="A50" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="40" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7685,7 +7667,7 @@
       <c r="A51" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="40" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7693,7 +7675,7 @@
       <c r="A52" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="40" t="s">
         <v>332</v>
       </c>
     </row>
@@ -7701,7 +7683,7 @@
       <c r="A53" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="39" t="s">
         <v>272</v>
       </c>
     </row>
@@ -7709,7 +7691,7 @@
       <c r="A54" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="39" t="s">
         <v>333</v>
       </c>
     </row>
@@ -7717,7 +7699,7 @@
       <c r="A55" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="40" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7725,7 +7707,7 @@
       <c r="A56" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="40" t="s">
         <v>335</v>
       </c>
     </row>
@@ -7733,15 +7715,15 @@
       <c r="A57" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="47" t="s">
-        <v>416</v>
+      <c r="B57" s="40" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="39" t="s">
         <v>273</v>
       </c>
     </row>
@@ -7749,7 +7731,7 @@
       <c r="A59" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="39" t="s">
         <v>336</v>
       </c>
     </row>
@@ -7757,7 +7739,7 @@
       <c r="A60" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="40" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7765,23 +7747,23 @@
       <c r="A61" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="47" t="s">
-        <v>338</v>
+      <c r="B61" s="40" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="47" t="s">
-        <v>339</v>
+      <c r="B62" s="40" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="39" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7789,39 +7771,39 @@
       <c r="A64" t="s">
         <v>136</v>
       </c>
-      <c r="B64" s="46" t="s">
-        <v>340</v>
+      <c r="B64" s="39" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="47" t="s">
-        <v>341</v>
+      <c r="B65" s="40" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="47" t="s">
-        <v>342</v>
+      <c r="B66" s="40" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="47" t="s">
-        <v>350</v>
+      <c r="B67" s="40" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="39" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7829,39 +7811,39 @@
       <c r="A69" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="46" t="s">
-        <v>343</v>
+      <c r="B69" s="39" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="47" t="s">
-        <v>344</v>
+      <c r="B70" s="40" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="47" t="s">
-        <v>345</v>
+      <c r="B71" s="40" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="47" t="s">
-        <v>417</v>
+      <c r="B72" s="40" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="47" t="s">
+      <c r="B73" s="40" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7869,39 +7851,39 @@
       <c r="A74" t="s">
         <v>144</v>
       </c>
-      <c r="B74" s="46" t="s">
-        <v>346</v>
+      <c r="B74" s="39" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>145</v>
       </c>
-      <c r="B75" s="47" t="s">
-        <v>347</v>
+      <c r="B75" s="40" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>146</v>
       </c>
-      <c r="B76" s="47" t="s">
-        <v>348</v>
+      <c r="B76" s="40" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>147</v>
       </c>
-      <c r="B77" s="47" t="s">
-        <v>350</v>
+      <c r="B77" s="40" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>68</v>
       </c>
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="41" t="s">
         <v>277</v>
       </c>
     </row>
@@ -7909,39 +7891,39 @@
       <c r="A79" t="s">
         <v>148</v>
       </c>
-      <c r="B79" s="46" t="s">
-        <v>349</v>
+      <c r="B79" s="39" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>149</v>
       </c>
-      <c r="B80" s="47" t="s">
-        <v>351</v>
+      <c r="B80" s="40" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>150</v>
       </c>
-      <c r="B81" s="47" t="s">
-        <v>352</v>
+      <c r="B81" s="40" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>151</v>
       </c>
-      <c r="B82" s="47" t="s">
-        <v>350</v>
+      <c r="B82" s="40" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>69</v>
       </c>
-      <c r="B83" s="47" t="s">
+      <c r="B83" s="40" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7949,39 +7931,39 @@
       <c r="A84" t="s">
         <v>152</v>
       </c>
-      <c r="B84" s="46" t="s">
-        <v>353</v>
+      <c r="B84" s="39" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>153</v>
       </c>
-      <c r="B85" s="47" t="s">
-        <v>354</v>
+      <c r="B85" s="40" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>154</v>
       </c>
-      <c r="B86" s="47" t="s">
-        <v>355</v>
+      <c r="B86" s="40" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>155</v>
       </c>
-      <c r="B87" s="47" t="s">
-        <v>350</v>
+      <c r="B87" s="40" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>70</v>
       </c>
-      <c r="B88" s="46" t="s">
+      <c r="B88" s="39" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7989,39 +7971,39 @@
       <c r="A89" t="s">
         <v>156</v>
       </c>
-      <c r="B89" s="46" t="s">
-        <v>356</v>
+      <c r="B89" s="39" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>157</v>
       </c>
-      <c r="B90" s="46" t="s">
-        <v>357</v>
+      <c r="B90" s="39" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>158</v>
       </c>
-      <c r="B91" s="46" t="s">
-        <v>358</v>
+      <c r="B91" s="39" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>159</v>
       </c>
-      <c r="B92" s="47" t="s">
-        <v>359</v>
+      <c r="B92" s="40" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>71</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="39" t="s">
         <v>280</v>
       </c>
     </row>
@@ -8029,39 +8011,39 @@
       <c r="A94" t="s">
         <v>160</v>
       </c>
-      <c r="B94" s="46" t="s">
-        <v>360</v>
+      <c r="B94" s="39" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>161</v>
       </c>
-      <c r="B95" s="47" t="s">
-        <v>361</v>
+      <c r="B95" s="40" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>162</v>
       </c>
-      <c r="B96" s="47" t="s">
-        <v>362</v>
+      <c r="B96" s="40" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>163</v>
       </c>
-      <c r="B97" s="47" t="s">
-        <v>350</v>
+      <c r="B97" s="40" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>72</v>
       </c>
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="39" t="s">
         <v>281</v>
       </c>
     </row>
@@ -8069,39 +8051,39 @@
       <c r="A99" t="s">
         <v>164</v>
       </c>
-      <c r="B99" s="46" t="s">
-        <v>363</v>
+      <c r="B99" s="39" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>165</v>
       </c>
-      <c r="B100" s="46" t="s">
-        <v>364</v>
+      <c r="B100" s="39" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="46" t="s">
-        <v>365</v>
+      <c r="B101" s="39" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>167</v>
       </c>
-      <c r="B102" s="46" t="s">
-        <v>366</v>
+      <c r="B102" s="39" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="46" t="s">
+      <c r="B103" s="39" t="s">
         <v>282</v>
       </c>
     </row>
@@ -8109,39 +8091,39 @@
       <c r="A104" t="s">
         <v>168</v>
       </c>
-      <c r="B104" s="46" t="s">
-        <v>369</v>
+      <c r="B104" s="39" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>169</v>
       </c>
-      <c r="B105" s="46" t="s">
-        <v>370</v>
+      <c r="B105" s="39" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>170</v>
       </c>
-      <c r="B106" s="47" t="s">
-        <v>367</v>
+      <c r="B106" s="40" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>171</v>
       </c>
-      <c r="B107" s="47" t="s">
-        <v>368</v>
+      <c r="B107" s="40" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>74</v>
       </c>
-      <c r="B108" s="46" t="s">
+      <c r="B108" s="39" t="s">
         <v>283</v>
       </c>
     </row>
@@ -8149,39 +8131,39 @@
       <c r="A109" t="s">
         <v>172</v>
       </c>
-      <c r="B109" s="46" t="s">
-        <v>371</v>
+      <c r="B109" s="39" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>173</v>
       </c>
-      <c r="B110" s="47" t="s">
-        <v>372</v>
+      <c r="B110" s="40" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>174</v>
       </c>
-      <c r="B111" s="47" t="s">
-        <v>373</v>
+      <c r="B111" s="40" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>175</v>
       </c>
-      <c r="B112" s="47" t="s">
-        <v>350</v>
+      <c r="B112" s="40" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>75</v>
       </c>
-      <c r="B113" s="46" t="s">
+      <c r="B113" s="39" t="s">
         <v>284</v>
       </c>
     </row>
@@ -8189,39 +8171,39 @@
       <c r="A114" t="s">
         <v>176</v>
       </c>
-      <c r="B114" s="46" t="s">
-        <v>374</v>
+      <c r="B114" s="39" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>177</v>
       </c>
-      <c r="B115" s="47" t="s">
-        <v>375</v>
+      <c r="B115" s="40" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>178</v>
       </c>
-      <c r="B116" s="47" t="s">
-        <v>376</v>
+      <c r="B116" s="40" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>179</v>
       </c>
-      <c r="B117" s="47" t="s">
-        <v>350</v>
+      <c r="B117" s="40" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>76</v>
       </c>
-      <c r="B118" s="47" t="s">
+      <c r="B118" s="40" t="s">
         <v>285</v>
       </c>
     </row>
@@ -8229,39 +8211,39 @@
       <c r="A119" t="s">
         <v>180</v>
       </c>
-      <c r="B119" s="46" t="s">
-        <v>377</v>
+      <c r="B119" s="39" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>181</v>
       </c>
-      <c r="B120" s="47" t="s">
-        <v>378</v>
+      <c r="B120" s="40" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>182</v>
       </c>
-      <c r="B121" s="47" t="s">
-        <v>379</v>
+      <c r="B121" s="40" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>183</v>
       </c>
-      <c r="B122" s="47" t="s">
-        <v>380</v>
+      <c r="B122" s="40" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>77</v>
       </c>
-      <c r="B123" s="46" t="s">
+      <c r="B123" s="39" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8269,39 +8251,39 @@
       <c r="A124" t="s">
         <v>184</v>
       </c>
-      <c r="B124" s="46" t="s">
-        <v>383</v>
+      <c r="B124" s="39" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>185</v>
       </c>
-      <c r="B125" s="47" t="s">
-        <v>384</v>
+      <c r="B125" s="40" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>186</v>
       </c>
-      <c r="B126" s="47" t="s">
-        <v>381</v>
+      <c r="B126" s="40" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>187</v>
       </c>
-      <c r="B127" s="47" t="s">
-        <v>382</v>
+      <c r="B127" s="40" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>78</v>
       </c>
-      <c r="B128" s="46" t="s">
+      <c r="B128" s="39" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8309,39 +8291,39 @@
       <c r="A129" t="s">
         <v>188</v>
       </c>
-      <c r="B129" s="46" t="s">
-        <v>385</v>
+      <c r="B129" s="39" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>189</v>
       </c>
-      <c r="B130" s="47" t="s">
-        <v>386</v>
+      <c r="B130" s="40" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>190</v>
       </c>
-      <c r="B131" s="47" t="s">
-        <v>387</v>
+      <c r="B131" s="40" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>191</v>
       </c>
-      <c r="B132" s="47" t="s">
-        <v>388</v>
+      <c r="B132" s="40" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>79</v>
       </c>
-      <c r="B133" s="46" t="s">
+      <c r="B133" s="39" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8349,39 +8331,39 @@
       <c r="A134" t="s">
         <v>192</v>
       </c>
-      <c r="B134" s="46" t="s">
-        <v>389</v>
+      <c r="B134" s="39" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>193</v>
       </c>
-      <c r="B135" s="47" t="s">
-        <v>390</v>
+      <c r="B135" s="40" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>194</v>
       </c>
-      <c r="B136" s="47" t="s">
-        <v>391</v>
+      <c r="B136" s="40" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>195</v>
       </c>
-      <c r="B137" s="47" t="s">
-        <v>392</v>
+      <c r="B137" s="40" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>80</v>
       </c>
-      <c r="B138" s="46" t="s">
+      <c r="B138" s="39" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8389,39 +8371,39 @@
       <c r="A139" t="s">
         <v>196</v>
       </c>
-      <c r="B139" s="46" t="s">
-        <v>393</v>
+      <c r="B139" s="39" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>197</v>
       </c>
-      <c r="B140" s="47" t="s">
-        <v>394</v>
+      <c r="B140" s="40" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>198</v>
       </c>
-      <c r="B141" s="47" t="s">
-        <v>398</v>
+      <c r="B141" s="40" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>199</v>
       </c>
-      <c r="B142" s="47" t="s">
-        <v>395</v>
+      <c r="B142" s="40" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>81</v>
       </c>
-      <c r="B143" s="46" t="s">
+      <c r="B143" s="39" t="s">
         <v>290</v>
       </c>
     </row>
@@ -8429,39 +8411,39 @@
       <c r="A144" t="s">
         <v>200</v>
       </c>
-      <c r="B144" s="46" t="s">
-        <v>396</v>
+      <c r="B144" s="39" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>201</v>
       </c>
-      <c r="B145" s="47" t="s">
-        <v>397</v>
+      <c r="B145" s="40" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>202</v>
       </c>
-      <c r="B146" s="47" t="s">
-        <v>399</v>
+      <c r="B146" s="40" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>203</v>
       </c>
-      <c r="B147" s="47" t="s">
-        <v>423</v>
+      <c r="B147" s="40" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>82</v>
       </c>
-      <c r="B148" s="46" t="s">
+      <c r="B148" s="39" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8469,39 +8451,39 @@
       <c r="A149" t="s">
         <v>204</v>
       </c>
-      <c r="B149" s="46" t="s">
-        <v>400</v>
+      <c r="B149" s="39" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>205</v>
       </c>
-      <c r="B150" s="47" t="s">
-        <v>401</v>
+      <c r="B150" s="40" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>206</v>
       </c>
-      <c r="B151" s="47" t="s">
-        <v>402</v>
+      <c r="B151" s="40" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>207</v>
       </c>
-      <c r="B152" s="47" t="s">
-        <v>424</v>
+      <c r="B152" s="40" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>83</v>
       </c>
-      <c r="B153" s="45" t="s">
+      <c r="B153" s="38" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8509,39 +8491,39 @@
       <c r="A154" t="s">
         <v>208</v>
       </c>
-      <c r="B154" s="46" t="s">
-        <v>403</v>
+      <c r="B154" s="39" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>209</v>
       </c>
-      <c r="B155" s="47" t="s">
-        <v>404</v>
+      <c r="B155" s="40" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>210</v>
       </c>
-      <c r="B156" s="47" t="s">
-        <v>405</v>
+      <c r="B156" s="40" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>211</v>
       </c>
-      <c r="B157" s="47" t="s">
-        <v>406</v>
+      <c r="B157" s="40" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>84</v>
       </c>
-      <c r="B158" s="46" t="s">
+      <c r="B158" s="39" t="s">
         <v>293</v>
       </c>
     </row>
@@ -8549,39 +8531,39 @@
       <c r="A159" t="s">
         <v>212</v>
       </c>
-      <c r="B159" s="46" t="s">
-        <v>407</v>
+      <c r="B159" s="39" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>213</v>
       </c>
-      <c r="B160" s="47" t="s">
-        <v>408</v>
+      <c r="B160" s="40" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>214</v>
       </c>
-      <c r="B161" s="47" t="s">
-        <v>409</v>
+      <c r="B161" s="40" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>215</v>
       </c>
-      <c r="B162" s="47" t="s">
-        <v>410</v>
+      <c r="B162" s="40" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>85</v>
       </c>
-      <c r="B163" s="46" t="s">
+      <c r="B163" s="39" t="s">
         <v>294</v>
       </c>
     </row>
@@ -8589,39 +8571,39 @@
       <c r="A164" t="s">
         <v>216</v>
       </c>
-      <c r="B164" s="46" t="s">
-        <v>411</v>
+      <c r="B164" s="39" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>217</v>
       </c>
-      <c r="B165" s="47" t="s">
-        <v>412</v>
+      <c r="B165" s="40" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>218</v>
       </c>
-      <c r="B166" s="47" t="s">
-        <v>413</v>
+      <c r="B166" s="40" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>219</v>
       </c>
-      <c r="B167" s="47" t="s">
-        <v>418</v>
+      <c r="B167" s="40" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>86</v>
       </c>
-      <c r="B168" s="46" t="s">
+      <c r="B168" s="39" t="s">
         <v>295</v>
       </c>
     </row>
@@ -8629,39 +8611,39 @@
       <c r="A169" t="s">
         <v>220</v>
       </c>
-      <c r="B169" s="46" t="s">
-        <v>419</v>
+      <c r="B169" s="39" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>221</v>
       </c>
-      <c r="B170" s="47" t="s">
-        <v>420</v>
+      <c r="B170" s="40" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>222</v>
       </c>
-      <c r="B171" s="47" t="s">
-        <v>421</v>
+      <c r="B171" s="40" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>223</v>
       </c>
-      <c r="B172" s="47" t="s">
-        <v>422</v>
+      <c r="B172" s="40" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>87</v>
       </c>
-      <c r="B173" s="46" t="s">
+      <c r="B173" s="39" t="s">
         <v>296</v>
       </c>
     </row>
@@ -8669,39 +8651,39 @@
       <c r="A174" t="s">
         <v>224</v>
       </c>
-      <c r="B174" s="46" t="s">
-        <v>425</v>
+      <c r="B174" s="39" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>225</v>
       </c>
-      <c r="B175" s="47" t="s">
-        <v>426</v>
+      <c r="B175" s="40" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>226</v>
       </c>
-      <c r="B176" s="47" t="s">
-        <v>421</v>
+      <c r="B176" s="40" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>227</v>
       </c>
-      <c r="B177" s="47" t="s">
-        <v>422</v>
+      <c r="B177" s="40" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>88</v>
       </c>
-      <c r="B178" s="46" t="s">
+      <c r="B178" s="39" t="s">
         <v>297</v>
       </c>
     </row>
@@ -8709,39 +8691,39 @@
       <c r="A179" t="s">
         <v>228</v>
       </c>
-      <c r="B179" s="46" t="s">
-        <v>427</v>
+      <c r="B179" s="39" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>229</v>
       </c>
-      <c r="B180" s="47" t="s">
-        <v>431</v>
+      <c r="B180" s="40" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>230</v>
       </c>
-      <c r="B181" s="47" t="s">
-        <v>432</v>
+      <c r="B181" s="40" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>231</v>
       </c>
-      <c r="B182" s="47" t="s">
-        <v>433</v>
+      <c r="B182" s="40" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>89</v>
       </c>
-      <c r="B183" s="46" t="s">
+      <c r="B183" s="39" t="s">
         <v>298</v>
       </c>
     </row>
@@ -8749,39 +8731,39 @@
       <c r="A184" t="s">
         <v>232</v>
       </c>
-      <c r="B184" s="46" t="s">
-        <v>427</v>
+      <c r="B184" s="39" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>233</v>
       </c>
-      <c r="B185" s="47" t="s">
-        <v>434</v>
+      <c r="B185" s="40" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>234</v>
       </c>
-      <c r="B186" s="47" t="s">
-        <v>432</v>
+      <c r="B186" s="40" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>235</v>
       </c>
-      <c r="B187" s="47" t="s">
-        <v>435</v>
+      <c r="B187" s="40" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>90</v>
       </c>
-      <c r="B188" s="47" t="s">
+      <c r="B188" s="40" t="s">
         <v>299</v>
       </c>
     </row>
@@ -8789,39 +8771,39 @@
       <c r="A189" t="s">
         <v>236</v>
       </c>
-      <c r="B189" s="46" t="s">
-        <v>436</v>
+      <c r="B189" s="39" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>237</v>
       </c>
-      <c r="B190" s="47" t="s">
-        <v>437</v>
+      <c r="B190" s="40" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>238</v>
       </c>
-      <c r="B191" s="47" t="s">
-        <v>438</v>
+      <c r="B191" s="40" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>239</v>
       </c>
-      <c r="B192" s="47" t="s">
-        <v>439</v>
+      <c r="B192" s="40" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>91</v>
       </c>
-      <c r="B193" s="47" t="s">
+      <c r="B193" s="40" t="s">
         <v>300</v>
       </c>
     </row>
@@ -8829,32 +8811,32 @@
       <c r="A194" t="s">
         <v>240</v>
       </c>
-      <c r="B194" s="46" t="s">
-        <v>440</v>
+      <c r="B194" s="39" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>241</v>
       </c>
-      <c r="B195" s="49" t="s">
-        <v>441</v>
+      <c r="B195" s="42" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>242</v>
       </c>
-      <c r="B196" s="47" t="s">
-        <v>442</v>
+      <c r="B196" s="40" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>243</v>
       </c>
-      <c r="B197" s="47" t="s">
-        <v>443</v>
+      <c r="B197" s="40" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -8882,36 +8864,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="46" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="91"/>
+      <c r="B2" s="75"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -8920,10 +8902,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="79" t="str">
+      <c r="B3" s="76" t="str">
         <f>VLOOKUP(CONCATENATE($A3, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>リスク評価</v>
       </c>
@@ -8947,8 +8929,8 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -8957,10 +8939,10 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="79" t="str">
+      <c r="B5" s="76" t="str">
         <f>VLOOKUP(CONCATENATE($A5, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティトレーニング</v>
       </c>
@@ -8984,8 +8966,8 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -8994,10 +8976,10 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="79" t="str">
+      <c r="B7" s="76" t="str">
         <f>VLOOKUP(CONCATENATE($A7, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティ担当者</v>
       </c>
@@ -9021,8 +9003,8 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -9031,10 +9013,10 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="79" t="str">
+      <c r="B9" s="76" t="str">
         <f>VLOOKUP(CONCATENATE($A9, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティレポート</v>
       </c>
@@ -9058,8 +9040,8 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
@@ -9078,10 +9060,10 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="89" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="84"/>
+      <c r="B12" s="90"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -9090,10 +9072,10 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="81" t="str">
+      <c r="A13" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="87" t="str">
         <f>VLOOKUP(CONCATENATE($A13, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティポリシーと規制遵守</v>
       </c>
@@ -9117,8 +9099,8 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="9"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
@@ -9127,10 +9109,10 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="81" t="str">
+      <c r="B15" s="87" t="str">
         <f>VLOOKUP(CONCATENATE($A15, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティ要件と標準</v>
       </c>
@@ -9154,8 +9136,8 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
@@ -9164,10 +9146,10 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="81" t="str">
+      <c r="B17" s="87" t="str">
         <f>VLOOKUP(CONCATENATE($A17, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティユーザーストーリーと受け入れ基準</v>
       </c>
@@ -9191,8 +9173,8 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
@@ -9201,10 +9183,10 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="81" t="str">
+      <c r="B19" s="87" t="str">
         <f>VLOOKUP(CONCATENATE($A19, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティ課題の追跡</v>
       </c>
@@ -9228,8 +9210,8 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
@@ -9238,8 +9220,8 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -9248,11 +9230,11 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="68"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -9260,10 +9242,10 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="85" t="str">
+      <c r="B23" s="84" t="str">
         <f>VLOOKUP(CONCATENATE($A23, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティアーキテクチャ設計レビュー</v>
       </c>
@@ -9287,8 +9269,8 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
@@ -9297,10 +9279,10 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="87" t="str">
+      <c r="B25" s="80" t="str">
         <f>VLOOKUP(CONCATENATE($A25, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>脅威モデリング</v>
       </c>
@@ -9324,8 +9306,8 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
-      <c r="B26" s="86"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="4"/>
@@ -9344,10 +9326,10 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="96" t="s">
+      <c r="A28" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="B28" s="97"/>
+      <c r="B28" s="83"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -9356,10 +9338,10 @@
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="94" t="str">
+      <c r="B29" s="66" t="str">
         <f>VLOOKUP(CONCATENATE($A29, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュア開発環境</v>
       </c>
@@ -9373,7 +9355,7 @@
       </c>
       <c r="E29" s="13" t="str">
         <f>VLOOKUP(CONCATENATE($A29, "-", E$1),LevelDescription,2,FALSE)</f>
-        <v>管轄環境の堅牢化テンプレートを実装している。</v>
+        <v>開発環境の堅牢化テンプレートを実装している。</v>
       </c>
       <c r="F29" s="13" t="str">
         <f>VLOOKUP(CONCATENATE($A29, "-", F$1),LevelDescription,2,FALSE)</f>
@@ -9383,8 +9365,8 @@
       <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="95"/>
-      <c r="B30" s="95"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
@@ -9393,10 +9375,10 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="94" t="str">
+      <c r="B31" s="66" t="str">
         <f>VLOOKUP(CONCATENATE($A31, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>ハードコードされたシークレットの検出</v>
       </c>
@@ -9420,8 +9402,8 @@
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="95"/>
-      <c r="B32" s="95"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -9430,10 +9412,10 @@
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="94" t="str">
+      <c r="B33" s="66" t="str">
         <f>VLOOKUP(CONCATENATE($A33, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>手動セキュアコードレビュー</v>
       </c>
@@ -9457,8 +9439,8 @@
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="95"/>
-      <c r="B34" s="95"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
       <c r="C34" s="5"/>
       <c r="D34" s="14"/>
       <c r="E34" s="4"/>
@@ -9467,10 +9449,10 @@
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="94" t="str">
+      <c r="B35" s="66" t="str">
         <f>VLOOKUP(CONCATENATE($A35, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>静的アプリケーションセキュリティテスト (SAST)</v>
       </c>
@@ -9494,8 +9476,8 @@
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="95"/>
-      <c r="B36" s="95"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="5"/>
       <c r="D36" s="4"/>
       <c r="E36" s="14"/>
@@ -9504,10 +9486,10 @@
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="94" t="str">
+      <c r="B37" s="66" t="str">
         <f>VLOOKUP(CONCATENATE($A37, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>ソフトウェアコンポジション解析 (SCA)</v>
       </c>
@@ -9531,8 +9513,8 @@
       <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="95"/>
-      <c r="B38" s="95"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="67"/>
       <c r="C38" s="5"/>
       <c r="D38" s="4"/>
       <c r="E38" s="14"/>
@@ -9541,10 +9523,10 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="94" t="str">
+      <c r="B39" s="66" t="str">
         <f>VLOOKUP(CONCATENATE($A39, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>ソフトウェアライセンスコンプライアンス</v>
       </c>
@@ -9568,8 +9550,8 @@
       <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="95"/>
-      <c r="B40" s="95"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="5"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -9578,10 +9560,10 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="94" t="str">
+      <c r="B41" s="66" t="str">
         <f>VLOOKUP(CONCATENATE($A41, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>インライン IDE セキュアコード解析</v>
       </c>
@@ -9605,8 +9587,8 @@
       <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="95"/>
-      <c r="B42" s="95"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="5"/>
       <c r="D42" s="14"/>
       <c r="E42" s="4"/>
@@ -9615,10 +9597,10 @@
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="94" t="str">
+      <c r="B43" s="66" t="str">
         <f>VLOOKUP(CONCATENATE($A43, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>コンテナセキュリティスキャン</v>
       </c>
@@ -9642,8 +9624,8 @@
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="95"/>
-      <c r="B44" s="95"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="5"/>
       <c r="D44" s="4"/>
       <c r="E44" s="14"/>
@@ -9652,10 +9634,10 @@
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="94" t="s">
+      <c r="A45" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="94" t="str">
+      <c r="B45" s="66" t="str">
         <f>VLOOKUP(CONCATENATE($A45, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュア依存関係管理</v>
       </c>
@@ -9679,8 +9661,8 @@
       <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="95"/>
-      <c r="B46" s="95"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="67"/>
       <c r="C46" s="5"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -9699,10 +9681,10 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="92" t="s">
+      <c r="A48" s="78" t="s">
         <v>255</v>
       </c>
-      <c r="B48" s="93"/>
+      <c r="B48" s="79"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -9711,10 +9693,10 @@
       <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="73" t="str">
+      <c r="B49" s="64" t="str">
         <f>VLOOKUP(CONCATENATE($A49, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティテスト管理</v>
       </c>
@@ -9738,8 +9720,8 @@
       <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="74"/>
-      <c r="B50" s="74"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5"/>
@@ -9748,10 +9730,10 @@
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="73" t="s">
+      <c r="A51" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="73" t="str">
+      <c r="B51" s="64" t="str">
         <f>VLOOKUP(CONCATENATE($A51, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>動的アプリケーションセキュリティテスト (DAST)</v>
       </c>
@@ -9775,8 +9757,8 @@
       <c r="H51" s="16"/>
     </row>
     <row r="52" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="74"/>
-      <c r="B52" s="74"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="5"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -9785,10 +9767,10 @@
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="73" t="s">
+      <c r="A53" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="73" t="str">
+      <c r="B53" s="64" t="str">
         <f>VLOOKUP(CONCATENATE($A53, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>インタラクティブアプリケーションセキュリティテスト (IAST)</v>
       </c>
@@ -9812,8 +9794,8 @@
       <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="74"/>
-      <c r="B54" s="74"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="5"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -9822,10 +9804,10 @@
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="73" t="s">
+      <c r="A55" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="73" t="str">
+      <c r="B55" s="64" t="str">
         <f>VLOOKUP(CONCATENATE($A55, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>ペネトレーションテスト</v>
       </c>
@@ -9849,8 +9831,8 @@
       <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="74"/>
-      <c r="B56" s="74"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -9859,10 +9841,10 @@
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="73" t="s">
+      <c r="A57" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="73" t="str">
+      <c r="B57" s="64" t="str">
         <f>VLOOKUP(CONCATENATE($A57, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティテストカバレッジ</v>
       </c>
@@ -9886,8 +9868,8 @@
       <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="74"/>
-      <c r="B58" s="74"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="4"/>
@@ -9906,10 +9888,10 @@
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="75" t="s">
+      <c r="A60" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="B60" s="76"/>
+      <c r="B60" s="92"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
@@ -9918,10 +9900,10 @@
       <c r="H60" s="17"/>
     </row>
     <row r="61" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="71" t="s">
+      <c r="A61" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="71" t="str">
+      <c r="B61" s="70" t="str">
         <f>VLOOKUP(CONCATENATE($A61, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>成果物署名</v>
       </c>
@@ -9945,8 +9927,8 @@
       <c r="H61" s="18"/>
     </row>
     <row r="62" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
-      <c r="B62" s="72"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="71"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="4"/>
@@ -9955,10 +9937,10 @@
       <c r="H62" s="4"/>
     </row>
     <row r="63" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="71" t="str">
+      <c r="B63" s="70" t="str">
         <f>VLOOKUP(CONCATENATE($A63, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュア成果物管理</v>
       </c>
@@ -9982,8 +9964,8 @@
       <c r="H63" s="18"/>
     </row>
     <row r="64" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="72"/>
-      <c r="B64" s="72"/>
+      <c r="A64" s="71"/>
+      <c r="B64" s="71"/>
       <c r="C64" s="5"/>
       <c r="D64" s="14"/>
       <c r="E64" s="4"/>
@@ -9992,10 +9974,10 @@
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="71" t="s">
+      <c r="A65" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="71" t="str">
+      <c r="B65" s="70" t="str">
         <f>VLOOKUP(CONCATENATE($A65, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>シークレット管理</v>
       </c>
@@ -10019,8 +10001,8 @@
       <c r="H65" s="18"/>
     </row>
     <row r="66" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="72"/>
-      <c r="B66" s="72"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="71"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
       <c r="E66" s="4"/>
@@ -10029,10 +10011,10 @@
       <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="71" t="s">
+      <c r="A67" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="71" t="str">
+      <c r="B67" s="70" t="str">
         <f>VLOOKUP(CONCATENATE($A67, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュアコンフィグレーション</v>
       </c>
@@ -10056,8 +10038,8 @@
       <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="72"/>
-      <c r="B68" s="72"/>
+      <c r="A68" s="71"/>
+      <c r="B68" s="71"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
       <c r="E68" s="4"/>
@@ -10066,10 +10048,10 @@
       <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="71" t="s">
+      <c r="A69" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="71" t="str">
+      <c r="B69" s="70" t="str">
         <f>VLOOKUP(CONCATENATE($A69, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティポリシーの実施</v>
       </c>
@@ -10093,8 +10075,8 @@
       <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="72"/>
-      <c r="B70" s="72"/>
+      <c r="A70" s="71"/>
+      <c r="B70" s="71"/>
       <c r="C70" s="5"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -10103,10 +10085,10 @@
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="71" t="str">
+      <c r="B71" s="70" t="str">
         <f>VLOOKUP(CONCATENATE($A71, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>Infrastructure-as-Code (IaC) セキュアデプロイメント</v>
       </c>
@@ -10130,8 +10112,8 @@
       <c r="H71" s="18"/>
     </row>
     <row r="72" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="72"/>
-      <c r="B72" s="72"/>
+      <c r="A72" s="71"/>
+      <c r="B72" s="71"/>
       <c r="C72" s="5"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -10140,10 +10122,10 @@
       <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="71" t="s">
+      <c r="A73" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B73" s="71" t="str">
+      <c r="B73" s="70" t="str">
         <f>VLOOKUP(CONCATENATE($A73, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>コンプライアンススキャン</v>
       </c>
@@ -10167,8 +10149,8 @@
       <c r="H73" s="18"/>
     </row>
     <row r="74" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="72"/>
-      <c r="B74" s="72"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="71"/>
       <c r="C74" s="5"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -10177,10 +10159,10 @@
       <c r="H74" s="4"/>
     </row>
     <row r="75" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B75" s="71" t="str">
+      <c r="B75" s="70" t="str">
         <f>VLOOKUP(CONCATENATE($A75, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュアリリース管理</v>
       </c>
@@ -10204,8 +10186,8 @@
       <c r="H75" s="18"/>
     </row>
     <row r="76" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="72"/>
-      <c r="B76" s="72"/>
+      <c r="A76" s="71"/>
+      <c r="B76" s="71"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
       <c r="E76" s="4"/>
@@ -10224,10 +10206,10 @@
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="98" t="s">
+      <c r="A78" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="B78" s="99"/>
+      <c r="B78" s="73"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
@@ -10236,10 +10218,10 @@
       <c r="H78" s="19"/>
     </row>
     <row r="79" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="77" t="s">
+      <c r="A79" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B79" s="77" t="str">
+      <c r="B79" s="68" t="str">
         <f>VLOOKUP(CONCATENATE($A79, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>環境の堅牢化</v>
       </c>
@@ -10263,8 +10245,8 @@
       <c r="H79" s="20"/>
     </row>
     <row r="80" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="78"/>
-      <c r="B80" s="78"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
       <c r="C80" s="5"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -10273,10 +10255,10 @@
       <c r="H80" s="4"/>
     </row>
     <row r="81" spans="1:8" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="77" t="s">
+      <c r="A81" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B81" s="77" t="str">
+      <c r="B81" s="68" t="str">
         <f>VLOOKUP(CONCATENATE($A81, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>アプリケーションの堅牢化</v>
       </c>
@@ -10300,8 +10282,8 @@
       <c r="H81" s="20"/>
     </row>
     <row r="82" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="78"/>
-      <c r="B82" s="78"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
       <c r="C82" s="5"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -10310,10 +10292,10 @@
       <c r="H82" s="4"/>
     </row>
     <row r="83" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="77" t="s">
+      <c r="A83" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B83" s="77" t="str">
+      <c r="B83" s="68" t="str">
         <f>VLOOKUP(CONCATENATE($A83, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>環境セキュリティログ記録</v>
       </c>
@@ -10337,8 +10319,8 @@
       <c r="H83" s="20"/>
     </row>
     <row r="84" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="78"/>
-      <c r="B84" s="78"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="69"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
       <c r="E84" s="4"/>
@@ -10347,10 +10329,10 @@
       <c r="H84" s="4"/>
     </row>
     <row r="85" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="77" t="s">
+      <c r="A85" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B85" s="77" t="str">
+      <c r="B85" s="68" t="str">
         <f>VLOOKUP(CONCATENATE($A85, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>アプリケーションセキュリティログ記録</v>
       </c>
@@ -10374,8 +10356,8 @@
       <c r="H85" s="20"/>
     </row>
     <row r="86" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="78"/>
-      <c r="B86" s="78"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
       <c r="E86" s="4"/>
@@ -10384,10 +10366,10 @@
       <c r="H86" s="4"/>
     </row>
     <row r="87" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="77" t="s">
+      <c r="A87" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="77" t="str">
+      <c r="B87" s="68" t="str">
         <f>VLOOKUP(CONCATENATE($A87, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>脆弱性の開示</v>
       </c>
@@ -10411,8 +10393,8 @@
       <c r="H87" s="20"/>
     </row>
     <row r="88" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="78"/>
-      <c r="B88" s="78"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="69"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="4"/>
@@ -10421,10 +10403,10 @@
       <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="77" t="s">
+      <c r="A89" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B89" s="77" t="str">
+      <c r="B89" s="68" t="str">
         <f>VLOOKUP(CONCATENATE($A89, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>証明書管理</v>
       </c>
@@ -10448,8 +10430,8 @@
       <c r="H89" s="20"/>
     </row>
     <row r="90" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="78"/>
-      <c r="B90" s="78"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -10460,16 +10442,63 @@
     <row r="91" spans="1:8" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="A81:A82"/>
@@ -10486,63 +10515,16 @@
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -10574,19 +10556,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="93" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="100" t="s">
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="47" t="s">
         <v>258</v>
       </c>
       <c r="D2" s="23">
@@ -10599,7 +10581,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="48" t="s">
         <v>259</v>
       </c>
       <c r="D3" s="23">
@@ -10612,7 +10594,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="49" t="s">
         <v>260</v>
       </c>
       <c r="D4" s="23">
@@ -10625,7 +10607,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="50" t="s">
         <v>261</v>
       </c>
       <c r="D5" s="23">
@@ -10638,7 +10620,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="51" t="s">
         <v>262</v>
       </c>
       <c r="D6" s="23">
@@ -10651,7 +10633,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="52" t="s">
         <v>263</v>
       </c>
       <c r="D7" s="23">
@@ -10664,7 +10646,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="53" t="s">
         <v>264</v>
       </c>
       <c r="D8" s="23">
@@ -10678,49 +10660,49 @@
     </row>
     <row r="9" spans="1:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="93" t="s">
         <v>249</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="100" t="s">
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="54" t="s">
         <v>258</v>
       </c>
       <c r="C11" s="24" t="str">
         <f t="shared" ref="C11:C48" si="2">VLOOKUP(CONCATENATE($A11,"-","ストリーム"),LevelDescription,2,FALSE)</f>
         <v>リスク評価</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <f t="shared" ref="D11:D48" si="3">IFERROR(VLOOKUP(E11,Levels,2),0)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <f t="shared" ref="E11:E48" si="4">VLOOKUP($A11,INTERVIEW,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="26" t="e">
+      <c r="F11" s="25" t="e">
         <f t="shared" ref="F11:F48" si="5">VLOOKUP(CONCATENATE($A11,"-",IFERROR(VLOOKUP(E11,Levels,3),0)),LevelDescription,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <f>IFERROR(VLOOKUP(H11,Levels,2),0)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <f t="shared" ref="H11:H48" si="6">VLOOKUP($A11,INTERVIEW,8,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="26" t="e">
+      <c r="I11" s="25" t="e">
         <f t="shared" ref="I11:I48" si="7">VLOOKUP(CONCATENATE($A11,"-",IFERROR(VLOOKUP(H11,Levels,3),0)),LevelDescription,2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -10729,34 +10711,34 @@
       <c r="A12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="54" t="s">
         <v>258</v>
       </c>
       <c r="C12" s="24" t="str">
         <f t="shared" si="2"/>
         <v>セキュリティトレーニング</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F12" s="26" t="e">
+      <c r="F12" s="25" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <f t="shared" ref="G12:G21" si="8">IFERROR(VLOOKUP(H12,Levels,2),0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I12" s="26" t="e">
+      <c r="I12" s="25" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
@@ -10765,34 +10747,34 @@
       <c r="A13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="54" t="s">
         <v>258</v>
       </c>
       <c r="C13" s="24" t="str">
         <f t="shared" si="2"/>
         <v>セキュリティ担当者</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F13" s="26" t="e">
+      <c r="F13" s="25" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I13" s="26" t="e">
+      <c r="I13" s="25" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
@@ -10801,1258 +10783,1258 @@
       <c r="A14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="54" t="s">
         <v>258</v>
       </c>
       <c r="C14" s="24" t="str">
         <f t="shared" si="2"/>
         <v>セキュリティレポート</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F14" s="26" t="e">
+      <c r="F14" s="25" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I14" s="26" t="e">
+      <c r="I14" s="25" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="C15" s="27" t="str">
+      <c r="C15" s="26" t="str">
         <f t="shared" si="2"/>
         <v>セキュリティポリシーと規制遵守</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F15" s="29" t="e">
+      <c r="F15" s="27" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I15" s="29" t="e">
+      <c r="I15" s="27" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="C16" s="27" t="str">
+      <c r="C16" s="26" t="str">
         <f t="shared" si="2"/>
         <v>セキュリティ要件と標準</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F16" s="29" t="e">
+      <c r="F16" s="27" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I16" s="29" t="e">
+      <c r="I16" s="27" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="27" t="str">
+      <c r="C17" s="26" t="str">
         <f t="shared" si="2"/>
         <v>セキュリティユーザーストーリーと受け入れ基準</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F17" s="29" t="e">
+      <c r="F17" s="27" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I17" s="29" t="e">
+      <c r="I17" s="27" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="C18" s="27" t="str">
+      <c r="C18" s="26" t="str">
         <f t="shared" si="2"/>
         <v>セキュリティ課題の追跡</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F18" s="29" t="e">
+      <c r="F18" s="27" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I18" s="29" t="e">
+      <c r="I18" s="27" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="C19" s="30" t="str">
+      <c r="C19" s="28" t="str">
         <f t="shared" si="2"/>
         <v>セキュリティアーキテクチャ設計レビュー</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F19" s="32" t="e">
+      <c r="F19" s="29" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I19" s="32" t="e">
+      <c r="I19" s="29" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="30" t="str">
+      <c r="C20" s="28" t="str">
         <f t="shared" si="2"/>
         <v>脅威モデリング</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F20" s="32" t="e">
+      <c r="F20" s="29" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I20" s="32" t="e">
+      <c r="I20" s="29" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="C21" s="33" t="str">
+      <c r="C21" s="30" t="str">
         <f t="shared" si="2"/>
         <v>セキュア開発環境</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F21" s="35" t="e">
+      <c r="F21" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I21" s="35" t="e">
+      <c r="I21" s="31" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="33" t="str">
+      <c r="C22" s="30" t="str">
         <f t="shared" si="2"/>
         <v>ハードコードされたシークレットの検出</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="30">
         <f>IFERROR(VLOOKUP(E22,Levels,2),0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F22" s="35" t="e">
+      <c r="F22" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="30">
         <f>IFERROR(VLOOKUP(H22,Levels,2),0)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I22" s="35" t="e">
+      <c r="I22" s="31" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="33" t="str">
+      <c r="C23" s="30" t="str">
         <f t="shared" si="2"/>
         <v>手動セキュアコードレビュー</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F23" s="35" t="e">
+      <c r="F23" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="30">
         <f t="shared" ref="G23:G48" si="9">IFERROR(VLOOKUP(H23,Levels,2),0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I23" s="35" t="e">
+      <c r="I23" s="31" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="C24" s="33" t="str">
+      <c r="C24" s="30" t="str">
         <f t="shared" si="2"/>
         <v>静的アプリケーションセキュリティテスト (SAST)</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F24" s="35" t="e">
+      <c r="F24" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I24" s="35" t="e">
+      <c r="I24" s="31" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="33" t="str">
+      <c r="C25" s="30" t="str">
         <f t="shared" si="2"/>
         <v>ソフトウェアコンポジション解析 (SCA)</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F25" s="35" t="e">
+      <c r="F25" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I25" s="35" t="e">
+      <c r="I25" s="31" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="C26" s="33" t="str">
+      <c r="C26" s="30" t="str">
         <f t="shared" si="2"/>
         <v>ソフトウェアライセンスコンプライアンス</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F26" s="35" t="e">
+      <c r="F26" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I26" s="35" t="e">
+      <c r="I26" s="31" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="C27" s="33" t="str">
+      <c r="C27" s="30" t="str">
         <f t="shared" si="2"/>
         <v>インライン IDE セキュアコード解析</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F27" s="35" t="e">
+      <c r="F27" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I27" s="35" t="e">
+      <c r="I27" s="31" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="C28" s="33" t="str">
+      <c r="C28" s="30" t="str">
         <f t="shared" si="2"/>
         <v>コンテナセキュリティスキャン</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F28" s="35" t="e">
+      <c r="F28" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I28" s="35" t="e">
+      <c r="I28" s="31" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="C29" s="33" t="str">
+      <c r="C29" s="30" t="str">
         <f t="shared" si="2"/>
         <v>セキュア依存関係管理</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F29" s="35" t="e">
+      <c r="F29" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I29" s="35" t="e">
+      <c r="I29" s="31" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="C30" s="36" t="str">
+      <c r="C30" s="32" t="str">
         <f t="shared" si="2"/>
         <v>セキュリティテスト管理</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F30" s="38" t="e">
+      <c r="F30" s="33" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I30" s="38" t="e">
+      <c r="I30" s="33" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="C31" s="36" t="str">
+      <c r="C31" s="32" t="str">
         <f t="shared" si="2"/>
         <v>動的アプリケーションセキュリティテスト (DAST)</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F31" s="38" t="e">
+      <c r="F31" s="33" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I31" s="38" t="e">
+      <c r="I31" s="33" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="C32" s="36" t="str">
+      <c r="C32" s="32" t="str">
         <f t="shared" si="2"/>
         <v>インタラクティブアプリケーションセキュリティテスト (IAST)</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F32" s="38" t="e">
+      <c r="F32" s="33" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I32" s="38" t="e">
+      <c r="I32" s="33" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="C33" s="36" t="str">
+      <c r="C33" s="32" t="str">
         <f t="shared" si="2"/>
         <v>ペネトレーションテスト</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F33" s="38" t="e">
+      <c r="F33" s="33" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I33" s="38" t="e">
+      <c r="I33" s="33" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="C34" s="36" t="str">
+      <c r="C34" s="32" t="str">
         <f t="shared" si="2"/>
         <v>セキュリティテストカバレッジ</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F34" s="38" t="e">
+      <c r="F34" s="33" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I34" s="38" t="e">
+      <c r="I34" s="33" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="C35" s="39" t="str">
+      <c r="C35" s="34" t="str">
         <f t="shared" si="2"/>
         <v>成果物署名</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F35" s="41" t="e">
+      <c r="F35" s="35" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G35" s="40">
+      <c r="G35" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H35" s="41">
+      <c r="H35" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I35" s="41" t="e">
+      <c r="I35" s="35" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="C36" s="39" t="str">
+      <c r="C36" s="34" t="str">
         <f t="shared" si="2"/>
         <v>セキュア成果物管理</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F36" s="41" t="e">
+      <c r="F36" s="35" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H36" s="41">
+      <c r="H36" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I36" s="41" t="e">
+      <c r="I36" s="35" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="C37" s="39" t="str">
+      <c r="C37" s="34" t="str">
         <f t="shared" si="2"/>
         <v>シークレット管理</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F37" s="41" t="e">
+      <c r="F37" s="35" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G37" s="40">
+      <c r="G37" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H37" s="41">
+      <c r="H37" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I37" s="41" t="e">
+      <c r="I37" s="35" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="39" t="str">
+      <c r="C38" s="34" t="str">
         <f t="shared" si="2"/>
         <v>セキュアコンフィグレーション</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D38" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F38" s="41" t="e">
+      <c r="F38" s="35" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G38" s="40">
+      <c r="G38" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H38" s="41">
+      <c r="H38" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I38" s="41" t="e">
+      <c r="I38" s="35" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="C39" s="39" t="str">
+      <c r="C39" s="34" t="str">
         <f t="shared" si="2"/>
         <v>セキュリティポリシーの実施</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E39" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F39" s="41" t="e">
+      <c r="F39" s="35" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H39" s="41">
+      <c r="H39" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I39" s="41" t="e">
+      <c r="I39" s="35" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="C40" s="39" t="str">
+      <c r="C40" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Infrastructure-as-Code (IaC) セキュアデプロイメント</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F40" s="41" t="e">
+      <c r="F40" s="35" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H40" s="41">
+      <c r="H40" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I40" s="41" t="e">
+      <c r="I40" s="35" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="C41" s="39" t="str">
+      <c r="C41" s="34" t="str">
         <f t="shared" si="2"/>
         <v>コンプライアンススキャン</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E41" s="41">
+      <c r="E41" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F41" s="41" t="e">
+      <c r="F41" s="35" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G41" s="40">
+      <c r="G41" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H41" s="41">
+      <c r="H41" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I41" s="41" t="e">
+      <c r="I41" s="35" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="C42" s="39" t="str">
+      <c r="C42" s="34" t="str">
         <f t="shared" si="2"/>
         <v>セキュアリリース管理</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F42" s="41" t="e">
+      <c r="F42" s="35" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G42" s="40">
+      <c r="G42" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H42" s="41">
+      <c r="H42" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I42" s="41" t="e">
+      <c r="I42" s="35" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="C43" s="42" t="str">
+      <c r="C43" s="36" t="str">
         <f t="shared" si="2"/>
         <v>環境の堅牢化</v>
       </c>
-      <c r="D43" s="43">
+      <c r="D43" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E43" s="44">
+      <c r="E43" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F43" s="44" t="e">
+      <c r="F43" s="37" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G43" s="43">
+      <c r="G43" s="36">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H43" s="44">
+      <c r="H43" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I43" s="44" t="e">
+      <c r="I43" s="37" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="C44" s="42" t="str">
+      <c r="C44" s="36" t="str">
         <f t="shared" si="2"/>
         <v>アプリケーションの堅牢化</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D44" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E44" s="44">
+      <c r="E44" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="44" t="e">
+      <c r="F44" s="37" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G44" s="43">
+      <c r="G44" s="36">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H44" s="44">
+      <c r="H44" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I44" s="44" t="e">
+      <c r="I44" s="37" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="C45" s="42" t="str">
+      <c r="C45" s="36" t="str">
         <f t="shared" si="2"/>
         <v>環境セキュリティログ記録</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E45" s="44">
+      <c r="E45" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F45" s="44" t="e">
+      <c r="F45" s="37" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G45" s="43">
+      <c r="G45" s="36">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H45" s="44">
+      <c r="H45" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I45" s="44" t="e">
+      <c r="I45" s="37" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="C46" s="42" t="str">
+      <c r="C46" s="36" t="str">
         <f t="shared" si="2"/>
         <v>アプリケーションセキュリティログ記録</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E46" s="44">
+      <c r="E46" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F46" s="44" t="e">
+      <c r="F46" s="37" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G46" s="43">
+      <c r="G46" s="36">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H46" s="44">
+      <c r="H46" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I46" s="44" t="e">
+      <c r="I46" s="37" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="C47" s="42" t="str">
+      <c r="C47" s="36" t="str">
         <f t="shared" si="2"/>
         <v>脆弱性の開示</v>
       </c>
-      <c r="D47" s="43">
+      <c r="D47" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E47" s="44">
+      <c r="E47" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F47" s="44" t="e">
+      <c r="F47" s="37" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G47" s="43">
+      <c r="G47" s="36">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H47" s="44">
+      <c r="H47" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I47" s="44" t="e">
+      <c r="I47" s="37" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="C48" s="42" t="str">
+      <c r="C48" s="36" t="str">
         <f t="shared" si="2"/>
         <v>証明書管理</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E48" s="44">
+      <c r="E48" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F48" s="44" t="e">
+      <c r="F48" s="37" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G48" s="43">
+      <c r="G48" s="36">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H48" s="44">
+      <c r="H48" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I48" s="44" t="e">
+      <c r="I48" s="37" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
